--- a/data/system.xlsx
+++ b/data/system.xlsx
@@ -1,128 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lanvnal/PycharmProjects/LanBoSQL/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3912220-4897-304C-AD3D-CE142CB49EB2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="tbname" sheetId="2" r:id="rId2"/>
-    <sheet name="permission" sheetId="3" r:id="rId3"/>
+    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="tbname" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="permission" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>testuser</t>
-  </si>
-  <si>
-    <t>testpassword</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>eee</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>insert</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>admin,root</t>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21232f297a57a5a743894a0e4a801fc3</t>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table_information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,21 +55,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -443,207 +416,363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+    <col width="14.46484375" customWidth="1" min="1" max="1"/>
+    <col width="41.1328125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>testuser</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>testpassword</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ccc</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ccc</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>testuser</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>testpassword</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bbb</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>eee</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>eee</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21232f297a57a5a743894a0e4a801fc3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ccc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="19.796875" customWidth="1" min="2" max="2"/>
+    <col width="12.1328125" customWidth="1" min="3" max="3"/>
+    <col width="11.6640625" customWidth="1" min="4" max="4"/>
+    <col width="13.1328125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>database</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>insert</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>table_information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_db</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_db</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/system.xlsx
+++ b/data/system.xlsx
@@ -1,124 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Routhleck\Documents\GitHub\QT_DBMS\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0959A2-7EA9-4EB6-B95F-7E5C1A3B6D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="tbname" sheetId="2" r:id="rId2"/>
-    <sheet name="permission" sheetId="3" r:id="rId3"/>
+    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="tbname" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="permission" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>testuser</t>
-  </si>
-  <si>
-    <t>testpassword</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>eee</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>21232f297a57a5a743894a0e4a801fc3</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>insert</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>admin,root</t>
-  </si>
-  <si>
-    <t>table_information</t>
-  </si>
-  <si>
-    <t>test_db</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,21 +55,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,228 +416,363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" customWidth="1"/>
-    <col min="2" max="2" width="41.1328125" customWidth="1"/>
+    <col width="14.46484375" customWidth="1" min="1" max="1"/>
+    <col width="41.1328125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>testuser</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>testpassword</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ccc</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ccc</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>testuser</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>testpassword</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bbb</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>eee</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>eee</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21232f297a57a5a743894a0e4a801fc3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ccc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" customWidth="1"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="19.796875" customWidth="1" min="2" max="2"/>
+    <col width="12.1328125" customWidth="1" min="3" max="3"/>
+    <col width="11.6640625" customWidth="1" min="4" max="4"/>
+    <col width="13.1328125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>database</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>insert</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>table_information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_db</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>shijie</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/system.xlsx
+++ b/data/system.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="25490" yWindow="1380" windowWidth="25820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
@@ -421,10 +421,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
@@ -448,108 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>testuser</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>testpassword</t>
+          <t>21232f297a57a5a743894a0e4a801fc3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ccc</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ccc</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>testuser</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>testpassword</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ddd</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ddd</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bbb</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>bbb</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>eee</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>eee</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>21232f297a57a5a743894a0e4a801fc3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ccc</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>asd</t>
+          <t>47bce5c74f589f4867dbd57e9ca9f808</t>
         </is>
       </c>
     </row>
@@ -598,7 +514,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/data/system.xlsx
+++ b/data/system.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="25490" yWindow="1380" windowWidth="25820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="25490" yWindow="-9560" windowWidth="14620" windowHeight="25100" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
@@ -423,7 +423,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -514,8 +514,8 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
@@ -689,6 +689,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data/system.xlsx
+++ b/data/system.xlsx
@@ -1,42 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Routhleck\Documents\GitHub\QT_DBMS\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A09A549-AA97-4BA0-8BCE-516D691D59BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="25490" yWindow="-9560" windowWidth="14620" windowHeight="25100" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="tbname" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="permission" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="permission" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>21232f297a57a5a743894a0e4a801fc3</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>47bce5c74f589f4867dbd57e9ca9f808</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>admin,root</t>
+  </si>
+  <si>
+    <t>table_information</t>
+  </si>
+  <si>
+    <t>test_db</t>
+  </si>
+  <si>
+    <t>shijie</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,80 +115,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,279 +417,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="14.46484375" customWidth="1" min="1" max="1"/>
-    <col width="41.1328125" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="14.46484375" customWidth="1"/>
+    <col min="2" max="2" width="41.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>21232f297a57a5a743894a0e4a801fc3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>47bce5c74f589f4867dbd57e9ca9f808</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="19.796875" customWidth="1" min="2" max="2"/>
-    <col width="12.1328125" customWidth="1" min="3" max="3"/>
-    <col width="11.6640625" customWidth="1" min="4" max="4"/>
-    <col width="13.1328125" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>database</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>select</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>insert</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>delete</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>update</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>table_information</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>test_db</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>shijie</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>admin,root</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/system.xlsx
+++ b/data/system.xlsx
@@ -1,102 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Routhleck\Documents\GitHub\QT_DBMS\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A09A549-AA97-4BA0-8BCE-516D691D59BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="permission" sheetId="3" r:id="rId2"/>
+    <sheet name="user" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="permission" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>21232f297a57a5a743894a0e4a801fc3</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>47bce5c74f589f4867dbd57e9ca9f808</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>insert</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>admin,root</t>
-  </si>
-  <si>
-    <t>table_information</t>
-  </si>
-  <si>
-    <t>test_db</t>
-  </si>
-  <si>
-    <t>shijie</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -115,21 +54,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,170 +415,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" customWidth="1"/>
-    <col min="2" max="2" width="41.1328125" customWidth="1"/>
+    <col width="14.46484375" customWidth="1" min="1" max="1"/>
+    <col width="41.1328125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21232f297a57a5a743894a0e4a801fc3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>47bce5c74f589f4867dbd57e9ca9f808</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bbb</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>08f8e0260c64418510cefb2b06eee5cd</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.796875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" customWidth="1"/>
+    <col width="24" customWidth="1" min="1" max="1"/>
+    <col width="19.796875" customWidth="1" min="2" max="2"/>
+    <col width="12.1328125" customWidth="1" min="3" max="3"/>
+    <col width="11.6640625" customWidth="1" min="4" max="4"/>
+    <col width="13.1328125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>database</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>insert</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>delete</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>table_information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_db</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>admin,root,bbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>shijie</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>